--- a/results/mp/tinybert/home-spam/confidence/210/stop-words-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/210/stop-words-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="100">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,234 +49,252 @@
     <t>returned</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>amazing</t>
+    <t>wonderful</t>
   </si>
   <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>wonderful</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
     <t>awesome</t>
   </si>
   <si>
+    <t>fantastic</t>
+  </si>
+  <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
     <t>kids</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>son</t>
   </si>
   <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>handy</t>
+  </si>
+  <si>
     <t>daughter</t>
   </si>
   <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>family</t>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>rice</t>
   </si>
   <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>potatoes</t>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>cooks</t>
   </si>
   <si>
     <t>comfortable</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
     <t>ze</t>
   </si>
   <si>
     <t>gift</t>
   </si>
   <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>bread</t>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>years</t>
-  </si>
-  <si>
     <t>old</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>popcorn</t>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>w</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>kitchen</t>
+    <t>good</t>
   </si>
   <si>
     <t>keeps</t>
   </si>
   <si>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>exactly</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>works</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
     <t>recommend</t>
   </si>
   <si>
     <t>big</t>
   </si>
   <si>
-    <t>little</t>
+    <t>last</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
+    <t>bought</t>
+  </si>
+  <si>
     <t>hot</t>
   </si>
   <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>makes</t>
   </si>
   <si>
-    <t>also</t>
-  </si>
-  <si>
     <t>coffee</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
     <t>clean</t>
   </si>
   <si>
-    <t>make</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
-    <t>job</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
@@ -287,6 +305,9 @@
   </si>
   <si>
     <t>time</t>
+  </si>
+  <si>
+    <t>used</t>
   </si>
   <si>
     <t>use</t>
@@ -650,7 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q81"/>
+  <dimension ref="A1:Q89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -658,10 +679,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J1" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -719,13 +740,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7931034482758621</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -737,19 +758,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="M3">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -761,7 +782,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -769,13 +790,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.2868217054263566</v>
+        <v>0.2790697674418605</v>
       </c>
       <c r="C4">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -787,19 +808,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K4">
-        <v>0.9655172413793104</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L4">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="M4">
-        <v>28</v>
+        <v>88</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -811,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -840,92 +861,68 @@
         <v>77</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5">
+        <v>0.8840579710144928</v>
+      </c>
+      <c r="L5">
+        <v>61</v>
+      </c>
+      <c r="M5">
+        <v>61</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="J6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <v>0.8828125</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <v>113</v>
       </c>
-      <c r="M5">
+      <c r="M6">
         <v>113</v>
       </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q5">
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6">
-        <v>0.1243243243243243</v>
-      </c>
-      <c r="C6">
-        <v>23</v>
-      </c>
-      <c r="D6">
-        <v>23</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>162</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6">
-        <v>0.8695652173913043</v>
-      </c>
-      <c r="L6">
-        <v>60</v>
-      </c>
-      <c r="M6">
-        <v>60</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="J7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K7">
-        <v>0.8591331269349846</v>
+        <v>0.8622291021671826</v>
       </c>
       <c r="L7">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="M7">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -937,12 +934,12 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8">
         <v>0.8478260869565217</v>
@@ -968,16 +965,16 @@
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K9">
-        <v>0.7922077922077922</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L9">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -989,21 +986,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>16</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K10">
-        <v>0.7777777777777778</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L10">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M10">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1020,10 +1017,10 @@
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K11">
-        <v>0.7727272727272727</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="L11">
         <v>34</v>
@@ -1041,21 +1038,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K12">
-        <v>0.7012987012987013</v>
+        <v>0.7489177489177489</v>
       </c>
       <c r="L12">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="M12">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1067,21 +1064,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K13">
-        <v>0.6779661016949152</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L13">
-        <v>200</v>
+        <v>56</v>
       </c>
       <c r="M13">
-        <v>200</v>
+        <v>56</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1093,47 +1090,47 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>95</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14">
+        <v>0.6712328767123288</v>
+      </c>
+      <c r="L14">
+        <v>49</v>
+      </c>
+      <c r="M14">
+        <v>49</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>24</v>
-      </c>
-      <c r="K14">
-        <v>0.676056338028169</v>
-      </c>
-      <c r="L14">
-        <v>48</v>
-      </c>
-      <c r="M14">
-        <v>48</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K15">
-        <v>0.6617647058823529</v>
+        <v>0.6619718309859155</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M15">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1145,21 +1142,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K16">
-        <v>0.6420545746388443</v>
+        <v>0.6617647058823529</v>
       </c>
       <c r="L16">
-        <v>800</v>
+        <v>45</v>
       </c>
       <c r="M16">
-        <v>800</v>
+        <v>45</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1171,21 +1168,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>446</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K17">
-        <v>0.6326530612244898</v>
+        <v>0.6508474576271186</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>192</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1197,21 +1194,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>18</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K18">
-        <v>0.6301369863013698</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L18">
-        <v>46</v>
+        <v>801</v>
       </c>
       <c r="M18">
-        <v>46</v>
+        <v>801</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1223,21 +1220,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>27</v>
+        <v>445</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K19">
-        <v>0.625</v>
+        <v>0.6342857142857142</v>
       </c>
       <c r="L19">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="M19">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1249,21 +1246,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>24</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K20">
         <v>0.625</v>
       </c>
       <c r="L20">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="M20">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1275,21 +1272,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K21">
-        <v>0.6171428571428571</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L21">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="M21">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1301,21 +1298,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>67</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K22">
-        <v>0.6153846153846154</v>
+        <v>0.5918367346938775</v>
       </c>
       <c r="L22">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="M22">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1327,21 +1324,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K23">
-        <v>0.6142857142857143</v>
+        <v>0.5897435897435898</v>
       </c>
       <c r="L23">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="M23">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1353,21 +1350,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K24">
-        <v>0.6140350877192983</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L24">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="M24">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1379,21 +1376,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K25">
-        <v>0.6041666666666666</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M25">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1405,21 +1402,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L26">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M26">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1431,21 +1428,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K27">
         <v>0.5641025641025641</v>
       </c>
       <c r="L27">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="M27">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1457,21 +1454,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K28">
-        <v>0.5490196078431373</v>
+        <v>0.55</v>
       </c>
       <c r="L28">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="M28">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1483,21 +1480,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K29">
-        <v>0.5396825396825397</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="L29">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M29">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1509,21 +1506,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K30">
-        <v>0.5245901639344263</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L30">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="M30">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1535,21 +1532,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>29</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K31">
-        <v>0.5149700598802395</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L31">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="M31">
-        <v>86</v>
+        <v>35</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1561,21 +1558,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>81</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K32">
-        <v>0.5060240963855421</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="L32">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="M32">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1587,21 +1584,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K33">
-        <v>0.4923076923076923</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1613,21 +1610,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K34">
-        <v>0.4903846153846154</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="L34">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="M34">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1639,21 +1636,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>53</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K35">
-        <v>0.4887218045112782</v>
+        <v>0.5042735042735043</v>
       </c>
       <c r="L35">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M35">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1665,21 +1662,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>68</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K36">
-        <v>0.4736842105263158</v>
+        <v>0.4970059880239521</v>
       </c>
       <c r="L36">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="M36">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1691,21 +1688,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>40</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K37">
-        <v>0.4444444444444444</v>
+        <v>0.4887218045112782</v>
       </c>
       <c r="L37">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="M37">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1717,21 +1714,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>45</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K38">
-        <v>0.4156626506024096</v>
+        <v>0.4868421052631579</v>
       </c>
       <c r="L38">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="M38">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1743,21 +1740,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>97</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K39">
-        <v>0.4126984126984127</v>
+        <v>0.47</v>
       </c>
       <c r="L39">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="M39">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1769,21 +1766,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>37</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K40">
-        <v>0.38</v>
+        <v>0.4693877551020408</v>
       </c>
       <c r="L40">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="M40">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1795,21 +1792,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>62</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K41">
-        <v>0.3513513513513514</v>
+        <v>0.4426229508196721</v>
       </c>
       <c r="L41">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="M41">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1821,21 +1818,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>72</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K42">
-        <v>0.3463035019455253</v>
+        <v>0.4320987654320987</v>
       </c>
       <c r="L42">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="M42">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1847,21 +1844,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>168</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K43">
-        <v>0.3458646616541353</v>
+        <v>0.4216867469879518</v>
       </c>
       <c r="L43">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="M43">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1873,21 +1870,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>87</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K44">
-        <v>0.3357843137254902</v>
+        <v>0.4107142857142857</v>
       </c>
       <c r="L44">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="M44">
-        <v>137</v>
+        <v>23</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1899,21 +1896,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>271</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K45">
-        <v>0.3289473684210527</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L45">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="M45">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1925,21 +1922,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K46">
-        <v>0.3267326732673267</v>
+        <v>0.3548387096774194</v>
       </c>
       <c r="L46">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="M46">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1951,21 +1948,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>68</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K47">
-        <v>0.3240740740740741</v>
+        <v>0.3540856031128405</v>
       </c>
       <c r="L47">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="M47">
-        <v>35</v>
+        <v>91</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1977,21 +1974,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>73</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K48">
-        <v>0.3235294117647059</v>
+        <v>0.3480392156862745</v>
       </c>
       <c r="L48">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="M48">
-        <v>22</v>
+        <v>142</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2003,21 +2000,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>46</v>
+        <v>266</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K49">
-        <v>0.3054794520547945</v>
+        <v>0.3423423423423423</v>
       </c>
       <c r="L49">
-        <v>223</v>
+        <v>38</v>
       </c>
       <c r="M49">
-        <v>223</v>
+        <v>38</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2029,21 +2026,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>507</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K50">
-        <v>0.302158273381295</v>
+        <v>0.3383458646616541</v>
       </c>
       <c r="L50">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="M50">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2055,21 +2052,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K51">
-        <v>0.2535885167464115</v>
+        <v>0.3235294117647059</v>
       </c>
       <c r="L51">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="M51">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2081,21 +2078,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>156</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K52">
+        <v>0.2966507177033493</v>
+      </c>
+      <c r="L52">
         <v>62</v>
       </c>
-      <c r="K52">
-        <v>0.2516556291390729</v>
-      </c>
-      <c r="L52">
-        <v>38</v>
-      </c>
       <c r="M52">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2107,21 +2104,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>113</v>
+        <v>147</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K53">
-        <v>0.2483221476510067</v>
+        <v>0.2877697841726619</v>
       </c>
       <c r="L53">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="M53">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2133,21 +2130,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K54">
-        <v>0.2421959095801938</v>
+        <v>0.287037037037037</v>
       </c>
       <c r="L54">
-        <v>225</v>
+        <v>31</v>
       </c>
       <c r="M54">
-        <v>225</v>
+        <v>31</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2159,21 +2156,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>704</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K55">
-        <v>0.2380952380952381</v>
+        <v>0.2794520547945206</v>
       </c>
       <c r="L55">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="M55">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2185,21 +2182,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>80</v>
+        <v>526</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K56">
-        <v>0.2252252252252252</v>
+        <v>0.2612612612612613</v>
       </c>
       <c r="L56">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M56">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2211,21 +2208,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K57">
-        <v>0.219435736677116</v>
+        <v>0.2588235294117647</v>
       </c>
       <c r="L57">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="M57">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2237,21 +2234,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>249</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K58">
-        <v>0.2049180327868853</v>
+        <v>0.2574257425742574</v>
       </c>
       <c r="L58">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M58">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2263,21 +2260,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K59">
-        <v>0.2035398230088496</v>
+        <v>0.2497308934337998</v>
       </c>
       <c r="L59">
-        <v>23</v>
+        <v>232</v>
       </c>
       <c r="M59">
-        <v>23</v>
+        <v>232</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2289,21 +2286,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>90</v>
+        <v>697</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K60">
-        <v>0.1828644501278772</v>
+        <v>0.2317880794701987</v>
       </c>
       <c r="L60">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="M60">
-        <v>143</v>
+        <v>35</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2315,21 +2312,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>639</v>
+        <v>116</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K61">
-        <v>0.1721854304635762</v>
+        <v>0.2293577981651376</v>
       </c>
       <c r="L61">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="M61">
-        <v>130</v>
+        <v>25</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2341,41 +2338,41 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>625</v>
+        <v>84</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K62">
-        <v>0.145945945945946</v>
+        <v>0.2288401253918495</v>
       </c>
       <c r="L62">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="M62">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="N62">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>316</v>
+        <v>246</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K63">
-        <v>0.1454545454545454</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L63">
         <v>24</v>
@@ -2393,21 +2390,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>141</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K64">
-        <v>0.140893470790378</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="L64">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="M64">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2419,21 +2416,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>250</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K65">
-        <v>0.1402439024390244</v>
+        <v>0.1892583120204604</v>
       </c>
       <c r="L65">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="M65">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2445,21 +2442,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>141</v>
+        <v>634</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K66">
-        <v>0.138655462184874</v>
+        <v>0.1879194630872483</v>
       </c>
       <c r="L66">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M66">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2471,21 +2468,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>205</v>
+        <v>121</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K67">
-        <v>0.1362530413625304</v>
+        <v>0.1854304635761589</v>
       </c>
       <c r="L67">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="M67">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2497,21 +2494,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>355</v>
+        <v>615</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K68">
-        <v>0.1355932203389831</v>
+        <v>0.1580756013745704</v>
       </c>
       <c r="L68">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="M68">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2523,21 +2520,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>153</v>
+        <v>245</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K69">
-        <v>0.1328413284132841</v>
+        <v>0.1477832512315271</v>
       </c>
       <c r="L69">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="M69">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2549,21 +2546,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>235</v>
+        <v>173</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K70">
-        <v>0.1231527093596059</v>
+        <v>0.1474358974358974</v>
       </c>
       <c r="L70">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M70">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2575,47 +2572,47 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>178</v>
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K71">
-        <v>0.1136363636363636</v>
+        <v>0.145945945945946</v>
       </c>
       <c r="L71">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="M71">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N71">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q71">
-        <v>390</v>
+        <v>316</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K72">
-        <v>0.1097852028639618</v>
+        <v>0.1454545454545454</v>
       </c>
       <c r="L72">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="M72">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2627,21 +2624,21 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>373</v>
+        <v>141</v>
       </c>
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K73">
-        <v>0.1074561403508772</v>
+        <v>0.1411042944785276</v>
       </c>
       <c r="L73">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="M73">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2653,21 +2650,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>407</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K74">
-        <v>0.1</v>
+        <v>0.1341463414634146</v>
       </c>
       <c r="L74">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M74">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2679,47 +2676,47 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>243</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K75">
-        <v>0.09899569583931134</v>
+        <v>0.1313868613138686</v>
       </c>
       <c r="L75">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="M75">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="N75">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O75">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q75">
-        <v>628</v>
+        <v>357</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K76">
-        <v>0.08870967741935484</v>
+        <v>0.1302521008403361</v>
       </c>
       <c r="L76">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="M76">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2731,21 +2728,21 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>226</v>
+        <v>207</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K77">
-        <v>0.08743169398907104</v>
+        <v>0.1291512915129151</v>
       </c>
       <c r="L77">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M77">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2757,21 +2754,21 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>334</v>
+        <v>236</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K78">
-        <v>0.06852791878172589</v>
+        <v>0.125</v>
       </c>
       <c r="L78">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="M78">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2783,47 +2780,47 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>367</v>
+        <v>385</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K79">
-        <v>0.06722689075630252</v>
+        <v>0.1217183770883055</v>
       </c>
       <c r="L79">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="M79">
-        <v>73</v>
+        <v>51</v>
       </c>
       <c r="N79">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O79">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q79">
-        <v>999</v>
+        <v>368</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K80">
-        <v>0.05166051660516605</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L80">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="M80">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -2835,33 +2832,241 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>514</v>
+        <v>240</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K81">
+        <v>0.1105769230769231</v>
+      </c>
+      <c r="L81">
+        <v>23</v>
+      </c>
+      <c r="M81">
+        <v>23</v>
+      </c>
+      <c r="N81">
+        <v>1</v>
+      </c>
+      <c r="O81">
+        <v>0</v>
+      </c>
+      <c r="P81" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q81">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="82" spans="10:17">
+      <c r="J82" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="K81">
-        <v>0.03719723183391004</v>
-      </c>
-      <c r="L81">
-        <v>43</v>
-      </c>
-      <c r="M81">
-        <v>44</v>
-      </c>
-      <c r="N81">
+      <c r="K82">
+        <v>0.1030701754385965</v>
+      </c>
+      <c r="L82">
+        <v>47</v>
+      </c>
+      <c r="M82">
+        <v>47</v>
+      </c>
+      <c r="N82">
+        <v>1</v>
+      </c>
+      <c r="O82">
+        <v>0</v>
+      </c>
+      <c r="P82" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q82">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="83" spans="10:17">
+      <c r="J83" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K83">
+        <v>0.08177905308464849</v>
+      </c>
+      <c r="L83">
+        <v>57</v>
+      </c>
+      <c r="M83">
+        <v>58</v>
+      </c>
+      <c r="N83">
         <v>0.98</v>
       </c>
-      <c r="O81">
+      <c r="O83">
         <v>0.02000000000000002</v>
       </c>
-      <c r="P81" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q81">
-        <v>1113</v>
+      <c r="P83" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q83">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="84" spans="10:17">
+      <c r="J84" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K84">
+        <v>0.07650273224043716</v>
+      </c>
+      <c r="L84">
+        <v>28</v>
+      </c>
+      <c r="M84">
+        <v>28</v>
+      </c>
+      <c r="N84">
+        <v>1</v>
+      </c>
+      <c r="O84">
+        <v>0</v>
+      </c>
+      <c r="P84" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q84">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="85" spans="10:17">
+      <c r="J85" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K85">
+        <v>0.07106598984771574</v>
+      </c>
+      <c r="L85">
+        <v>28</v>
+      </c>
+      <c r="M85">
+        <v>28</v>
+      </c>
+      <c r="N85">
+        <v>1</v>
+      </c>
+      <c r="O85">
+        <v>0</v>
+      </c>
+      <c r="P85" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q85">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="86" spans="10:17">
+      <c r="J86" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="K86">
+        <v>0.06623134328358209</v>
+      </c>
+      <c r="L86">
+        <v>71</v>
+      </c>
+      <c r="M86">
+        <v>71</v>
+      </c>
+      <c r="N86">
+        <v>1</v>
+      </c>
+      <c r="O86">
+        <v>0</v>
+      </c>
+      <c r="P86" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q86">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="87" spans="10:17">
+      <c r="J87" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="K87">
+        <v>0.04981549815498155</v>
+      </c>
+      <c r="L87">
+        <v>27</v>
+      </c>
+      <c r="M87">
+        <v>27</v>
+      </c>
+      <c r="N87">
+        <v>1</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q87">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="88" spans="10:17">
+      <c r="J88" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="K88">
+        <v>0.04414587332053743</v>
+      </c>
+      <c r="L88">
+        <v>23</v>
+      </c>
+      <c r="M88">
+        <v>24</v>
+      </c>
+      <c r="N88">
+        <v>0.96</v>
+      </c>
+      <c r="O88">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P88" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q88">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="89" spans="10:17">
+      <c r="J89" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K89">
+        <v>0.04163052905464007</v>
+      </c>
+      <c r="L89">
+        <v>48</v>
+      </c>
+      <c r="M89">
+        <v>52</v>
+      </c>
+      <c r="N89">
+        <v>0.92</v>
+      </c>
+      <c r="O89">
+        <v>0.07999999999999996</v>
+      </c>
+      <c r="P89" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q89">
+        <v>1105</v>
       </c>
     </row>
   </sheetData>
